--- a/dtpu_configurations/only_integer8/80mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer8/80mhz/graph.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D0E8D-DB21-4F7B-A51E-1CA7914CB25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCABE6C3-6E79-49F2-AC15-7F02C29CC46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilization" sheetId="1" r:id="rId1"/>
     <sheet name="timing" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>3x3</t>
   </si>
@@ -108,11 +118,17 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,12 +171,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1890,1662 +1913,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$D$2:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$E$2:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$2:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$I$2:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PL Static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$J$2:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$K$2:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B959-409D-8A97-071AED383F4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="476886000"/>
-        <c:axId val="476886328"/>
-        <c:axId val="471836576"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="476886000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="476886328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="476886328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="476886000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="471836576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="476886328"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3626,46 +1993,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4666,500 +2993,6 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5254,47 +3087,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65529163-7DD2-4EA6-8BAB-64B313F72160}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F748D3B-F4AB-48BF-873C-6F52EF554C4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5638,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6219,15 +4011,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -6258,499 +4053,1232 @@
       <c r="K1" t="s">
         <v>23</v>
       </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.02</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="4">
+        <v>2.4895381182432175E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.4355340041220188E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.0052631609141827E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.0512915477156639E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.608827566698892E-6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.6463621286675334E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.12539766728878021</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.4433542490005493</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>5.750824511051178E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="O2" s="5">
+        <f>B2/L2</f>
+        <v>0.43290107591687949</v>
+      </c>
+      <c r="P2" s="5">
+        <f>C2/L2</f>
+        <v>0.24962229352737134</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>D2/L2</f>
+        <v>0.17480331020054607</v>
+      </c>
+      <c r="R2" s="5">
+        <f>E2/L2</f>
+        <v>8.7835953575157028E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <f>F2/L2</f>
+        <v>8.0142031074713785E-5</v>
+      </c>
+      <c r="T2" s="5">
+        <f>G2/L2</f>
+        <v>2.8628279744996064E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <f>H2/L2</f>
+        <v>2.5951457390214268E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.44</v>
+      <c r="X2" s="5">
+        <f>I2/K2</f>
+        <v>0.87327718574567181</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>J2/K2</f>
+        <v>8.6879341904880128E-2</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>L2/K2</f>
+        <v>3.9843472349448072E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.03</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.45</v>
+      <c r="B3" s="4">
+        <v>2.6066379621624947E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.4921899884939194E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0260794311761856E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.4822784624993801E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.3018439605948515E-5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.6959058120846748E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.12651583552360535</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.4479169845581055</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L15" si="0">K3-J3-I3</f>
+        <v>6.0952812433242798E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.42764851335077547</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.24481068697661934</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.16833996500161105</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.10634912818172172</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>3.7764360145249977E-4</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.7823257769148513E-2</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.4484887784398581E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.87052527875825536</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>8.737782405544274E-2</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>4.2096897186301871E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.03</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.45</v>
+      <c r="B4" s="4">
+        <v>2.6623290032148361E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.5874471515417099E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.0431334376335144E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.5855927318334579E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.3000622099498287E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.673029899597168E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.12655408680438995</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.4527356624603271</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>6.5733239054679871E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40502020613957435</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.24149839173773255</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15869192704254068</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13061265282685333</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="5"/>
+        <v>6.5416861724596333E-4</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="6"/>
+        <v>4.0664813388757874E-2</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="7"/>
+        <v>2.2704232957849225E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="8"/>
+        <v>0.8676377741471456</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7114325114081806E-2</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="10"/>
+        <v>4.5247900738772551E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.03</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.46</v>
+      <c r="B5" s="4">
+        <v>3.2332416623830795E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.3565570116043091E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0574144311249256E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.4647703915834427E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.2423460399731994E-5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.6815526653081179E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.12709586322307587</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.4567077159881592</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>6.9163516163825989E-2</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.46747791924351795</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19613765852954387</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15288615874014458</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.1223877972243797</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="5"/>
+        <v>6.1337917377197169E-4</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="6"/>
+        <v>3.877120213142992E-2</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="7"/>
+        <v>2.1578179585843755E-2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86527195728226847</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7248705988256722E-2</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="10"/>
+        <v>4.7479336729474825E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.03</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.46</v>
+      <c r="B6" s="4">
+        <v>3.2658126205205917E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.4285740442574024E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.082578394562006E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.9388612434267998E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.140501601388678E-4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.436380997300148E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.12712582945823669</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4604356288909912</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>7.2861462831497192E-2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44822221426891495</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19606716482774841</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14858038152014971</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13640765443334391</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="5"/>
+        <v>2.9377691830575806E-3</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="6"/>
+        <v>4.7163217203685333E-2</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0483019617968567E-2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86306326117119048</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7046513343947959E-2</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="10"/>
+        <v>4.9890225484861592E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.03</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.46</v>
+      <c r="B7" s="4">
+        <v>3.2762322574853897E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.3910179026424885E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.0808354243636131E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.6916879042983055E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.5385069824988022E-5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.8983392510563135E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.12760573625564575</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.4566729068756104</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>6.8618834018707275E-2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47745379302017921</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20271663349209065</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15751293938759572</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11209295544429321</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="5"/>
+        <v>6.6140835055015471E-4</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="6"/>
+        <v>2.7664988456941382E-2</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="7"/>
+        <v>2.1749462722793735E-2</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.8652926340922813</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7600816664699863E-2</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="10"/>
+        <v>4.7106549243018797E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.03</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.46</v>
+      <c r="B8" s="4">
+        <v>3.4936260432004929E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.5047300606966019E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1129637248814106E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8.3581330254673958E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.7742956667207181E-5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.1374234929680824E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.1276429146528244</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4612503051757813</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>7.3159053921699524E-2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47753843932148732</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20567926729985878</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1521293216930594</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11424605127361155</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="5"/>
+        <v>6.5259122566436393E-4</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="6"/>
+        <v>2.9216117191123308E-2</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="7"/>
+        <v>2.039970027727191E-2</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86258208613317044</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7351848071962987E-2</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="10"/>
+        <v>5.0066065794866575E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.04</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.47</v>
+      <c r="B9" s="4">
+        <v>3.7861477583646774E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.7308121547102928E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1771056801080704E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1136924847960472E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.5568038108758628E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.4927756749093533E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.12771809101104736</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.4704949855804443</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>8.2328557968139648E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ref="O9:O15" si="11">B9/L9</f>
+        <v>0.459882676413436</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" ref="P9:P15" si="12">C9/L9</f>
+        <v>0.21023229331674925</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" ref="Q9:Q15" si="13">D9/L9</f>
+        <v>0.14297659392547588</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" ref="R9:R15" si="14">E9/L9</f>
+        <v>0.13527413965237134</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9:S15" si="15">F9/L9</f>
+        <v>3.1056098563821814E-3</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" ref="T9:T15" si="16">G9/L9</f>
+        <v>3.0278383788454467E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" ref="U9:U15" si="17">H9/L9</f>
+        <v>1.8127643789764877E-2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" ref="X9:X15" si="18">I9/K9</f>
+        <v>0.85715922118817978</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" ref="Y9:Y15" si="19">J9/K9</f>
+        <v>8.6853809270647439E-2</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9:Z15" si="20">L9/K9</f>
+        <v>5.5986969541172785E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.04</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.47</v>
+      <c r="B10" s="4">
+        <v>3.9270099252462387E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.8666209653019905E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.2079592794179916E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.6472958102822304E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5383304455317557E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.131622051820159E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.12772811949253082</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.471727728843689</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>8.3551272749900818E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="11"/>
+        <v>0.47001198138551403</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="12"/>
+        <v>0.22341023707555746</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="13"/>
+        <v>0.14457700519223096</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="14"/>
+        <v>0.11546557572091183</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="15"/>
+        <v>3.0380512013621825E-3</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="16"/>
+        <v>2.5512741836990021E-2</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="17"/>
+        <v>1.7862358327428544E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="18"/>
+        <v>0.85644125057803311</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="19"/>
+        <v>8.6787873184182379E-2</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="20"/>
+        <v>5.6770876237784561E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.04</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.48</v>
+      <c r="B11" s="4">
+        <v>4.1355952620506287E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.9605837762355804E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.2147797271609306E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.0098795406520367E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.2297915206290781E-4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.7333232099190354E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.12775532901287079</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.4750709533691406</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>8.6867287755012512E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="11"/>
+        <v>0.47608200611880991</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="12"/>
+        <v>0.22569874424592573</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="13"/>
+        <v>0.13984317440495131</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="14"/>
+        <v>0.11625544744762259</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="15"/>
+        <v>4.8692570355806991E-3</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="16"/>
+        <v>1.9953693210814187E-2</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="17"/>
+        <v>1.7180492348056846E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="18"/>
+        <v>0.85450014029652344</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="19"/>
+        <v>8.6609616114445759E-2</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="20"/>
+        <v>5.889024358903075E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.04</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.48</v>
+      <c r="B12" s="4">
+        <v>4.4565282762050629E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.1028464660048485E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.2747544795274734E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.2348751127719879E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.4836331401020288E-4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.1956351809203625E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.12777139246463776</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.4770424365997314</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>8.8822707533836365E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="11"/>
+        <v>0.5017329914771379</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="12"/>
+        <v>0.23674649471857007</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="13"/>
+        <v>0.14351673293024364</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="14"/>
+        <v>8.1452990047797352E-2</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1736838386885233E-3</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="16"/>
+        <v>1.3460917980516345E-2</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="17"/>
+        <v>1.6802266154777111E-2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="18"/>
+        <v>0.85335959574926579</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="19"/>
+        <v>8.650488929673382E-2</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="20"/>
+        <v>6.0135514954000421E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.05</v>
-      </c>
-      <c r="C13">
-        <v>0.03</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.03</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.52</v>
+      <c r="B13" s="4">
+        <v>4.9797806888818741E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.1863279640674591E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.437834557145834E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.6492513716220856E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.6640764018520713E-4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.9952391050755978E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.12809246778488159</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.5163369178771973</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.12779611349105835</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="11"/>
+        <v>0.38966605109084945</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="12"/>
+        <v>0.24932901924990078</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="13"/>
+        <v>0.11251003789300967</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="14"/>
+        <v>0.20730296870940826</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="15"/>
+        <v>5.9971122692931596E-3</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="16"/>
+        <v>2.3437638463748502E-2</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="17"/>
+        <v>1.1678154615209534E-2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="18"/>
+        <v>0.83124556405698258</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="19"/>
+        <v>8.4474938435321625E-2</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="20"/>
+        <v>8.4279497507695783E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-      <c r="C14">
-        <v>0.03</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.03</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.52</v>
+      <c r="B14" s="4">
+        <v>5.2015304565429688E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.2383095473051071E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.5182200819253922E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.6214275509119034E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.1965401982888579E-4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.4928264319896698E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.12811407446861267</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.5189722776412964</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.13040986657142639</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="11"/>
+        <v>0.39886019311997795</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="12"/>
+        <v>0.24831783303232371</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="13"/>
+        <v>0.11641911167004013</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="14"/>
+        <v>0.20101451062187303</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="15"/>
+        <v>4.7515884811483722E-3</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="16"/>
+        <v>1.9115320776931639E-2</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="17"/>
+        <v>1.1444094007672604E-2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="18"/>
+        <v>0.82980338427144806</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" si="19"/>
+        <v>8.4342602135933559E-2</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" si="20"/>
+        <v>8.5854013592618406E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.05</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
-      <c r="D15">
-        <v>0.02</v>
-      </c>
-      <c r="E15">
-        <v>0.02</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1.26</v>
-      </c>
-      <c r="J15">
-        <v>0.13</v>
-      </c>
-      <c r="K15">
-        <v>1.52</v>
+      <c r="B15" s="4">
+        <v>5.0148610025644302E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.4774888306856155E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.7666658386588097E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.1007740870118141E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.8872976438142359E-4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.7347129760310054E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.12808774411678314</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.5157599449157715</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.12722386419773102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="11"/>
+        <v>0.39417612679727648</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="12"/>
+        <v>0.27333620564149119</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="13"/>
+        <v>0.13886277152477164</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="14"/>
+        <v>0.16512421629850799</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="15"/>
+        <v>3.0554783635345388E-3</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="16"/>
+        <v>1.3635122521785054E-2</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="17"/>
+        <v>1.1730682619826141E-2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="18"/>
+        <v>0.8315619770987539</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="19"/>
+        <v>8.4503977391948287E-2</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="20"/>
+        <v>8.3934045509297756E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>